--- a/Docs/Angebot/PSP.xlsx
+++ b/Docs/Angebot/PSP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BBO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias\Source\Repos\SailingSchoolManagerWPF\Docs\Angebot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Rechnung</t>
   </si>
@@ -126,6 +126,27 @@
   </si>
   <si>
     <t>Implemtierung View</t>
+  </si>
+  <si>
+    <t>Stammdaten</t>
+  </si>
+  <si>
+    <t>Erstellung StammdatenActionModel</t>
+  </si>
+  <si>
+    <t>Erstellung der Entität Stammdaten</t>
+  </si>
+  <si>
+    <t>Erstellung StammdatenViewModel</t>
+  </si>
+  <si>
+    <t>Erstellung Verknüpfung Stammdaten/Kurse</t>
+  </si>
+  <si>
+    <t>Erstellung Verkünpfung Stammdaten/Finanzwesen</t>
+  </si>
+  <si>
+    <t>Erstellung der Stammdaten-Page</t>
   </si>
 </sst>
 </file>
@@ -454,17 +475,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -804,12 +825,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>23</v>
       </c>
@@ -823,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>22</v>
       </c>
@@ -836,6 +857,219 @@
       <c r="G35">
         <v>1</v>
       </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <f>G38+G39+G41+G42+G43+G44+G46+G47</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1">
+        <v>41751</v>
+      </c>
+      <c r="F38" s="1">
+        <v>41751</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>41751</v>
+      </c>
+      <c r="F39" s="1">
+        <v>41751</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1">
+        <v>41752</v>
+      </c>
+      <c r="F41" s="1">
+        <v>41753</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41754</v>
+      </c>
+      <c r="F42" s="1">
+        <v>41757</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1">
+        <v>41758</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="1">
+        <v>41759</v>
+      </c>
+      <c r="F44" s="1">
+        <v>41760</v>
+      </c>
+      <c r="G44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1">
+        <v>41761</v>
+      </c>
+      <c r="F46" s="1">
+        <v>41761</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1">
+        <v>41764</v>
+      </c>
+      <c r="F47" s="1">
+        <v>41764</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Docs/Angebot/PSP.xlsx
+++ b/Docs/Angebot/PSP.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias\Source\Repos\SailingSchoolManagerWPF\Docs\Angebot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Rechnung</t>
   </si>
@@ -147,13 +142,43 @@
   </si>
   <si>
     <t>Erstellung der Stammdaten-Page</t>
+  </si>
+  <si>
+    <t>Materialverwaltung</t>
+  </si>
+  <si>
+    <t>Materialeingang?/Neuanlage Material?</t>
+  </si>
+  <si>
+    <t>Materialeigenschaften/Funktionsgruppen</t>
+  </si>
+  <si>
+    <t>Reparaturmaßnahmen/Ticketing</t>
+  </si>
+  <si>
+    <t>Materialstatus</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Datenbankzugriffe</t>
+  </si>
+  <si>
+    <t>Funktionsgruppen</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +194,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,15 +232,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,51 +1068,158 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="1">
+        <v>41730</v>
+      </c>
+      <c r="F50" s="1">
+        <v>41730</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="1">
+        <v>41730</v>
+      </c>
+      <c r="F51" s="1">
+        <v>41730</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="1">
+        <v>41731</v>
+      </c>
+      <c r="F52" s="1">
+        <v>41731</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="D53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="1">
+        <v>41731</v>
+      </c>
+      <c r="F53" s="1">
+        <v>41731</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1">
+        <v>41732</v>
+      </c>
+      <c r="F55" s="1">
+        <v>41733</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="D56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1">
+        <v>41734</v>
+      </c>
+      <c r="F56" s="1">
+        <v>41736</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="1">
+        <v>41737</v>
+      </c>
+      <c r="F57" s="1">
+        <v>41738</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="D58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="1">
+        <v>41739</v>
+      </c>
+      <c r="F58" s="1">
+        <v>41740</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="1">
+        <v>41730</v>
+      </c>
+      <c r="F59" s="1">
+        <v>41851</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
@@ -1059,17 +1233,13 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Docs/Angebot/PSP.xlsx
+++ b/Docs/Angebot/PSP.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\privat\Studium\Projektarbeit\SailingSchoolManagerWPF\Docs\Angebot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Rechnung</t>
   </si>
@@ -172,6 +177,21 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Terminverwaltung</t>
+  </si>
+  <si>
+    <t>grafische Termindarstellung</t>
+  </si>
+  <si>
+    <t>Eingabemaske zur Terminerstellung</t>
+  </si>
+  <si>
+    <t>Prüfung auf Terminkollisionen</t>
+  </si>
+  <si>
+    <t>Terminerstellung/Terminabsage</t>
   </si>
 </sst>
 </file>
@@ -534,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,23 +1087,29 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3">
+        <f>SUM(G54,G49)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="5" t="s">
+      <c r="G49">
+        <f>SUM(G50:G53)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="1">
@@ -1097,7 +1123,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="1">
@@ -1111,7 +1137,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="1">
@@ -1125,7 +1151,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="1">
@@ -1139,12 +1165,16 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>47</v>
       </c>
+      <c r="G54">
+        <f>SUM(G55:G58)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="1">
@@ -1158,7 +1188,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="1">
@@ -1174,8 +1204,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E57" s="1">
@@ -1189,7 +1218,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="1">
@@ -1203,7 +1232,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="1">
@@ -1214,32 +1243,105 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
+      <c r="G60">
+        <f>SUM(G61,G64)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61">
+        <f>SUM(G62:G63)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="1">
+        <v>41741</v>
+      </c>
+      <c r="F62" s="1">
+        <v>41014</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1">
+        <v>41745</v>
+      </c>
+      <c r="F63" s="1">
+        <v>41745</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="G64">
+        <f>SUM(G65:G67)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1">
+        <v>41746</v>
+      </c>
+      <c r="F65" s="1">
+        <v>41746</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="1">
+        <v>41747</v>
+      </c>
+      <c r="F66" s="1">
+        <v>41747</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="1">
+        <v>41748</v>
+      </c>
+      <c r="F67" s="1">
+        <v>41754</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
